--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value235.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value235.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5314836482684651</v>
+        <v>1.188747525215149</v>
       </c>
       <c r="B1">
-        <v>0.5240514611713282</v>
+        <v>2.169229745864868</v>
       </c>
       <c r="C1">
-        <v>0.5490848649440795</v>
+        <v>3.744539737701416</v>
       </c>
       <c r="D1">
-        <v>0.7478429662369882</v>
+        <v>3.280540704727173</v>
       </c>
       <c r="E1">
-        <v>1.352822359022446</v>
+        <v>1.139498829841614</v>
       </c>
     </row>
   </sheetData>
